--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H2">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I2">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J2">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>4.354329599190038</v>
+        <v>7.646091489822664</v>
       </c>
       <c r="R2">
-        <v>4.354329599190038</v>
+        <v>68.81482340840398</v>
       </c>
       <c r="S2">
-        <v>0.09377633101945855</v>
+        <v>0.1410240755489434</v>
       </c>
       <c r="T2">
-        <v>0.09377633101945855</v>
+        <v>0.1410240755489434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H3">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I3">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J3">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>21.61837990409023</v>
+        <v>22.324362938977</v>
       </c>
       <c r="R3">
-        <v>21.61837990409023</v>
+        <v>200.919266450793</v>
       </c>
       <c r="S3">
-        <v>0.4655808210677204</v>
+        <v>0.4117492773764002</v>
       </c>
       <c r="T3">
-        <v>0.4655808210677204</v>
+        <v>0.4117492773764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H4">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I4">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J4">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>1.923232251253108</v>
+        <v>0.6168284481043332</v>
       </c>
       <c r="R4">
-        <v>1.923232251253108</v>
+        <v>5.551456032939</v>
       </c>
       <c r="S4">
-        <v>0.04141938732758267</v>
+        <v>0.01137674873260253</v>
       </c>
       <c r="T4">
-        <v>0.04141938732758267</v>
+        <v>0.01137674873260253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.642087967826947</v>
+        <v>3.081251</v>
       </c>
       <c r="H5">
-        <v>0.642087967826947</v>
+        <v>9.243753</v>
       </c>
       <c r="I5">
-        <v>0.1286068818140969</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J5">
-        <v>0.1286068818140969</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>0.93212153838126</v>
+        <v>2.017690456911667</v>
       </c>
       <c r="R5">
-        <v>0.93212153838126</v>
+        <v>18.159214112205</v>
       </c>
       <c r="S5">
-        <v>0.02007448814850111</v>
+        <v>0.03721416776252732</v>
       </c>
       <c r="T5">
-        <v>0.02007448814850111</v>
+        <v>0.0372141677625273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H6">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I6">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J6">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>4.62779793639403</v>
+        <v>1.657624948709333</v>
       </c>
       <c r="R6">
-        <v>4.62779793639403</v>
+        <v>14.91862453838399</v>
       </c>
       <c r="S6">
-        <v>0.09966583862994186</v>
+        <v>0.03057314005590327</v>
       </c>
       <c r="T6">
-        <v>0.09966583862994186</v>
+        <v>0.03057314005590327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H7">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I7">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J7">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>0.4117020000130363</v>
+        <v>4.839782655092</v>
       </c>
       <c r="R7">
-        <v>0.4117020000130363</v>
+        <v>43.55804389582799</v>
       </c>
       <c r="S7">
-        <v>0.008866555035653983</v>
+        <v>0.08926467538357823</v>
       </c>
       <c r="T7">
-        <v>0.008866555035653983</v>
+        <v>0.0892646753835782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35109137763417</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H8">
-        <v>1.35109137763417</v>
+        <v>2.003988</v>
       </c>
       <c r="I8">
-        <v>0.2706165787711414</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J8">
-        <v>0.2706165787711414</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>1.961384477700479</v>
+        <v>0.1337245605826666</v>
       </c>
       <c r="R8">
-        <v>1.961384477700479</v>
+        <v>1.203521045244</v>
       </c>
       <c r="S8">
-        <v>0.04224104672082738</v>
+        <v>0.002466408172000127</v>
       </c>
       <c r="T8">
-        <v>0.04224104672082738</v>
+        <v>0.002466408172000126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35109137763417</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H9">
-        <v>1.35109137763417</v>
+        <v>2.003988</v>
       </c>
       <c r="I9">
-        <v>0.2706165787711414</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J9">
-        <v>0.2706165787711414</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>9.737883596317989</v>
+        <v>0.4374227073533333</v>
       </c>
       <c r="R9">
-        <v>9.737883596317989</v>
+        <v>3.936804366179999</v>
       </c>
       <c r="S9">
-        <v>0.209718390570878</v>
+        <v>0.008067799477776135</v>
       </c>
       <c r="T9">
-        <v>0.209718390570878</v>
+        <v>0.008067799477776133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.374521</v>
+      </c>
+      <c r="H10">
+        <v>4.123563</v>
+      </c>
+      <c r="I10">
+        <v>0.2682637074902688</v>
+      </c>
+      <c r="J10">
+        <v>0.2682637074902689</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P10">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q10">
+        <v>3.410859199942665</v>
+      </c>
+      <c r="R10">
+        <v>30.69773279948399</v>
+      </c>
+      <c r="S10">
+        <v>0.06290969263705204</v>
+      </c>
+      <c r="T10">
+        <v>0.06290969263705204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.35109137763417</v>
-      </c>
-      <c r="H10">
-        <v>1.35109137763417</v>
-      </c>
-      <c r="I10">
-        <v>0.2706165787711414</v>
-      </c>
-      <c r="J10">
-        <v>0.2706165787711414</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.641192516667742</v>
-      </c>
-      <c r="N10">
-        <v>0.641192516667742</v>
-      </c>
-      <c r="O10">
-        <v>0.0689430838426727</v>
-      </c>
-      <c r="P10">
-        <v>0.0689430838426727</v>
-      </c>
-      <c r="Q10">
-        <v>0.86630968067334</v>
-      </c>
-      <c r="R10">
-        <v>0.86630968067334</v>
-      </c>
-      <c r="S10">
-        <v>0.01865714147943605</v>
-      </c>
-      <c r="T10">
-        <v>0.01865714147943605</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.374521</v>
+      </c>
+      <c r="H11">
+        <v>4.123563</v>
+      </c>
+      <c r="I11">
+        <v>0.2682637074902688</v>
+      </c>
+      <c r="J11">
+        <v>0.2682637074902689</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.245227</v>
+      </c>
+      <c r="N11">
+        <v>21.735681</v>
+      </c>
+      <c r="O11">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P11">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q11">
+        <v>9.958716661266999</v>
+      </c>
+      <c r="R11">
+        <v>89.628449951403</v>
+      </c>
+      <c r="S11">
+        <v>0.183678002372636</v>
+      </c>
+      <c r="T11">
+        <v>0.1836780023726359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.374521</v>
+      </c>
+      <c r="H12">
+        <v>4.123563</v>
+      </c>
+      <c r="I12">
+        <v>0.2682637074902688</v>
+      </c>
+      <c r="J12">
+        <v>0.2682637074902689</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.600563</v>
+      </c>
+      <c r="O12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q12">
+        <v>0.2751621517743333</v>
+      </c>
+      <c r="R12">
+        <v>2.476459365969</v>
+      </c>
+      <c r="S12">
+        <v>0.005075075040847229</v>
+      </c>
+      <c r="T12">
+        <v>0.00507507504084723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.374521</v>
+      </c>
+      <c r="H13">
+        <v>4.123563</v>
+      </c>
+      <c r="I13">
+        <v>0.2682637074902688</v>
+      </c>
+      <c r="J13">
+        <v>0.2682637074902689</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.964485</v>
+      </c>
+      <c r="O13">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P13">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q13">
+        <v>0.9000752955616667</v>
+      </c>
+      <c r="R13">
+        <v>8.100677660055</v>
+      </c>
+      <c r="S13">
+        <v>0.01660093743973367</v>
+      </c>
+      <c r="T13">
+        <v>0.01660093743973367</v>
       </c>
     </row>
   </sheetData>
